--- a/Test Data/FC_Gallery_PanelAccessories_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelAccessories_FIM_Series_Panels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NGConsys Project\Scripts\test data added\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC824B20-314E-4629-94F9-D6DBF41D908E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D335640-1BB4-4DD2-9CF2-D5FFFF9E46E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="19" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>NGC-3443/T1917/T1942/T1957</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
   </si>
 </sst>
 </file>
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62A130-09F6-45CB-8D3B-AEFA265C0B3E}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,11 +685,21 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -699,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17826E0-80D5-4221-BBB2-C172B26E9AB9}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,11 +847,21 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -851,10 +877,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A762EEBA-59FB-4B3E-B2DD-431D61085AF3}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,11 +1009,21 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1003,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCAB232-EA88-4225-AE0E-E5A396431F0B}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,11 +1171,21 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/FC_Gallery_PanelAccessories_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelAccessories_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D335640-1BB4-4DD2-9CF2-D5FFFF9E46E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE71EDFC-1C4F-43DA-BAB3-F559C1CC4669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="19" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>White double gang back box</t>
   </si>
   <si>
-    <t>NGC-/T1235/T1239/T1245</t>
-  </si>
-  <si>
     <t>Spain Market</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>MX-DPBX</t>
+  </si>
+  <si>
+    <t>NGC-3003/T1235/T1239/T1245</t>
   </si>
 </sst>
 </file>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62A130-09F6-45CB-8D3B-AEFA265C0B3E}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -685,12 +685,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -764,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -847,12 +847,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A762EEBA-59FB-4B3E-B2DD-431D61085AF3}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -926,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1009,12 +1009,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1171,12 +1171,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
